--- a/src/test/resources/TestData/LiveProject_PhpTravels_BoatsBooking_TestData.xlsx
+++ b/src/test/resources/TestData/LiveProject_PhpTravels_BoatsBooking_TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\El-Sharkawy\git\Automation-Practice\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahmoud El-Sharkawy\git\Automation-Practice\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F4B9C4-F827-4AB8-BBF8-EDFF6561435B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C3A490-3CDE-462C-AA7D-86E8D09D906D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{26E33DF7-E585-0646-A302-1C346031F2A4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{26E33DF7-E585-0646-A302-1C346031F2A4}"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>FirstName</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Your booking status is Reserved</t>
   </si>
   <si>
-    <t>testingBoatsBooking</t>
-  </si>
-  <si>
     <t>Expected Invoice Status</t>
   </si>
   <si>
@@ -72,6 +69,24 @@
   </si>
   <si>
     <t>Reserved</t>
+  </si>
+  <si>
+    <t>testingBoatsBooking_noPaymentMethod</t>
+  </si>
+  <si>
+    <t>testingBoatsBooking_payOnArrival</t>
+  </si>
+  <si>
+    <t>Item ID</t>
+  </si>
+  <si>
+    <t>Adults Count</t>
+  </si>
+  <si>
+    <t>CheckIn Date</t>
+  </si>
+  <si>
+    <t>Unpaid</t>
   </si>
 </sst>
 </file>
@@ -128,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -137,6 +152,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -453,54 +471,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A63622E-CB57-6443-8D5E-E59E3D20E8B5}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1155150745</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>81</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>45690</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -511,23 +582,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E5A4EB-72C8-0E44-91C4-D3652BB51352}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -547,15 +618,15 @@
         <v>3</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -576,14 +647,14 @@
         <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E3" s="2"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E4" s="2"/>
       <c r="G4" s="1"/>
     </row>
@@ -600,7 +671,7 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
